--- a/data/trans_dic/P12A1_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación 16-59 años</t>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,02%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,72%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,02%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,25; 70,44</t>
+          <t>3,01; 22,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,95; 63,72</t>
+          <t>2,03; 22,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,44; 69,24</t>
+          <t>5,37; 29,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,05; 57,71</t>
+          <t>0,0; 14,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 38,33</t>
+          <t>1,54; 15,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,0; 70,56</t>
+          <t>0,0; 10,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,55; 55,44</t>
+          <t>1,41; 12,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,83; 41,86</t>
+          <t>2,88; 18,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,68; 62,34</t>
+          <t>3,64; 15,09</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 12,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,86; 17,7</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 12,55</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,16; 57,4</t>
+          <t>2,63; 9,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,8; 57,13</t>
+          <t>3,13; 11,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 57,34</t>
+          <t>1,38; 6,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,16; 69,58</t>
+          <t>3,04; 12,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,72; 66,55</t>
+          <t>4,57; 12,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,27; 74,34</t>
+          <t>4,69; 12,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,4; 56,48</t>
+          <t>6,65; 16,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,37; 56,81</t>
+          <t>7,35; 16,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,2; 59,33</t>
+          <t>4,41; 9,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 10,67</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 9,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,8; 12,11</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,16%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>49,52%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,72%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,23; 83,83</t>
+          <t>5,62; 16,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,85; 86,88</t>
+          <t>6,55; 18,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,04; 79,7</t>
+          <t>4,32; 13,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 52,38</t>
+          <t>6,8; 18,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,28; 70,24</t>
+          <t>1,63; 7,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,44; 57,78</t>
+          <t>1,56; 7,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,02; 61,13</t>
+          <t>1,08; 6,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,83; 74,03</t>
+          <t>2,03; 8,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,91; 59,37</t>
+          <t>4,09; 9,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 10,59</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 8,48</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 11,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,33; 58,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,04; 57,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,65; 55,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,71; 54,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,77; 52,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,22; 62,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,88; 52,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,11; 51,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,82; 55,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 10,71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 12,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 9,31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 11,2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 8,54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 7,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 9,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 10,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 8,66</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 8,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 8,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 10,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12931</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9443</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17019</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6779</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8217</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5764</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17044</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21148</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13356</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22783</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23823</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3880; 28535</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2138; 23920</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6133; 34027</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25404</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2197; 22030</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12207</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1721; 15655</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6170; 39439</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9888; 40947</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4678; 27283</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11489; 41874</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9810; 49146</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22244</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23649</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12947</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31655</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37509</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30345</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38799</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>53765</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>59753</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>53994</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>51746</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>85420</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301; 40075</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11781; 43427</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5494; 25144</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15605; 62661</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21219; 59454</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17851; 47158</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24956; 60374</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35819; 81877</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>39454; 85817</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>36484; 80766</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>32868; 74898</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>58016; 121176</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>32407</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32142</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21573</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39886</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17085</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12054</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16667</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49492</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44196</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31754</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>56553</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18725; 54633</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18503; 51939</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11886; 37747</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23717; 64907</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6999; 33468</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5378; 25240</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3538; 20588</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8092; 33453</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31119; 75681</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28573; 66414</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19227; 51125</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35747; 86280</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>67582</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>65235</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>51539</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>78321</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>62811</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46311</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>54744</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>87475</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>130393</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>111546</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>106283</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>165796</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42730; 95490</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>43636; 92604</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>34436; 73418</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>49256; 116478</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>41284; 88431</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>28941; 65967</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36872; 76686</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>64194; 117824</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>97702; 166812</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>82837; 144382</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>80826; 138528</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>128097; 218019</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
